--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695"/>
+    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,88 +19,88 @@
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
   <si>
+    <t>IUT</t>
+  </si>
+  <si>
     <t>Agen</t>
   </si>
   <si>
+    <t>44.802614</t>
+  </si>
+  <si>
+    <t>-0.588054</t>
+  </si>
+  <si>
     <t>Université Picardie Jules Verne-IUT Aisne</t>
   </si>
   <si>
     <t>Laon</t>
   </si>
   <si>
+    <t>49.4314025</t>
+  </si>
+  <si>
+    <t>2.0899064</t>
+  </si>
+  <si>
     <t>École nationale supérieure des mines d'Albi</t>
   </si>
   <si>
+    <t>EI</t>
+  </si>
+  <si>
     <t>Albi</t>
   </si>
   <si>
+    <t>43.9207561</t>
+  </si>
+  <si>
+    <t>2.1723533</t>
+  </si>
+  <si>
     <t>Université Paul Sabatier Toulouse 3 (UPS)-IUT Paul Sabatier-Site Albi</t>
   </si>
   <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>43.5609901</t>
+  </si>
+  <si>
+    <t>1.4630574</t>
+  </si>
+  <si>
     <t>École nationale supérieure des mines d'Alès</t>
   </si>
   <si>
     <t>Alès</t>
   </si>
   <si>
+    <t>3037,1709,3754,6908</t>
+  </si>
+  <si>
+    <t>44.13225</t>
+  </si>
+  <si>
+    <t>4.089435</t>
+  </si>
+  <si>
     <t>Université de Picardie Jules Verne</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>Amiens</t>
   </si>
   <si>
     <t>convention générale</t>
   </si>
   <si>
-    <t>44.802614</t>
-  </si>
-  <si>
-    <t>-0.588054</t>
-  </si>
-  <si>
-    <t>49.4314025</t>
-  </si>
-  <si>
-    <t>2.0899064</t>
-  </si>
-  <si>
-    <t>43.9207561</t>
-  </si>
-  <si>
-    <t>2.1723533</t>
-  </si>
-  <si>
-    <t>43.5609901</t>
-  </si>
-  <si>
-    <t>1.4630574</t>
-  </si>
-  <si>
-    <t>44.13225</t>
-  </si>
-  <si>
-    <t>4.089435</t>
-  </si>
-  <si>
     <t>49.8764069</t>
   </si>
   <si>
     <t>2.2637991</t>
-  </si>
-  <si>
-    <t>3037,1709,3754,6908</t>
-  </si>
-  <si>
-    <t>IUT</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>EI</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -494,128 +494,128 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="51.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3">
         <v>7764</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="51.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>7764</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" ht="51.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>1709.3753999999999</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="51.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>7764</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -136,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,26 +145,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF808080"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -174,19 +165,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,136 +472,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="4">
         <v>7764</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="4">
         <v>7764</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="4">
         <v>1709.3753999999999</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="4">
         <v>7764</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="7365"/>
-  </bookViews>
-  <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="data" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Agen</t>
+  </si>
+  <si>
+    <t>7764</t>
+  </si>
+  <si>
+    <t>44.802614</t>
+  </si>
+  <si>
+    <t>-0.5880540000000565</t>
+  </si>
+  <si>
+    <t>Université Picardie Jules Verne-IUT Aisne</t>
+  </si>
+  <si>
     <t>IUT</t>
   </si>
   <si>
-    <t>Agen</t>
-  </si>
-  <si>
-    <t>44.802614</t>
-  </si>
-  <si>
-    <t>-0.588054</t>
-  </si>
-  <si>
-    <t>Université Picardie Jules Verne-IUT Aisne</t>
-  </si>
-  <si>
     <t>Laon</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Université de Picardie Jules Verne</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
   <si>
     <t>Amiens</t>
@@ -107,24 +110,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF262626"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF262626"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -161,29 +165,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -471,7 +475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -480,14 +488,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="4.5703125"/>
+    <col customWidth="1" max="3" min="2" width="20.28515625"/>
+    <col customWidth="1" max="5" min="4" width="18.28515625"/>
+    <col customWidth="1" max="6" min="6" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A1" s="1">
+    <row customHeight="1" ht="51.75" r="1" spans="1:7">
+      <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -499,133 +507,133 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="51.75" r="2" spans="1:7">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>7764</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="51.75" r="3" spans="1:7">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1709.3754</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="51.75" r="4" spans="1:7">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7764</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row customHeight="1" ht="51.75" r="5" spans="1:7">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="51.75" r="6" spans="1:7">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4">
-        <v>7764</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1709.3753999999999</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7764</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
@@ -25,15 +25,12 @@
     <t>Agen</t>
   </si>
   <si>
+    <t>146 rue Léo Saignat, 33000 Bordeaux, France</t>
+  </si>
+  <si>
     <t>7764</t>
   </si>
   <si>
-    <t>44.802614</t>
-  </si>
-  <si>
-    <t>-0.5880540000000565</t>
-  </si>
-  <si>
     <t>Université Picardie Jules Verne-IUT Aisne</t>
   </si>
   <si>
@@ -43,10 +40,7 @@
     <t>Laon</t>
   </si>
   <si>
-    <t>49.4314025</t>
-  </si>
-  <si>
-    <t>2.0899064</t>
+    <t>54 Boulevard Saint-André, 60000 Beauvais, France</t>
   </si>
   <si>
     <t>École nationale supérieure des mines d'Albi</t>
@@ -58,10 +52,7 @@
     <t>Albi</t>
   </si>
   <si>
-    <t>43.9207561</t>
-  </si>
-  <si>
-    <t>2.1723533</t>
+    <t>Campus Jarlard, 81013 CT Cédex 09, 81000 Albi, France</t>
   </si>
   <si>
     <t>Université Paul Sabatier Toulouse 3 (UPS)-IUT Paul Sabatier-Site Albi</t>
@@ -70,40 +61,43 @@
     <t>EC</t>
   </si>
   <si>
-    <t>43.5609901</t>
-  </si>
-  <si>
-    <t>1.4630574</t>
-  </si>
-  <si>
-    <t>École nationale supérieure des mines d'Alès</t>
+    <t>31400 Toulouse, France</t>
+  </si>
+  <si>
+    <t>École des mines d'Alès</t>
   </si>
   <si>
     <t>Alès</t>
   </si>
   <si>
+    <t>30100 Alès, France</t>
+  </si>
+  <si>
     <t>3037,1709,3754,6908</t>
   </si>
   <si>
-    <t>44.13225</t>
-  </si>
-  <si>
-    <t>4.089435</t>
-  </si>
-  <si>
     <t>Université de Picardie Jules Verne</t>
   </si>
   <si>
     <t>Amiens</t>
   </si>
   <si>
+    <t>Chemin du Thil, 80000 Amiens, France</t>
+  </si>
+  <si>
     <t>convention générale</t>
   </si>
   <si>
-    <t>49.8764069</t>
-  </si>
-  <si>
-    <t>2.2637991</t>
+    <t>Université de Paris</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>75005 Paris, France</t>
+  </si>
+  <si>
+    <t>3037, 6908</t>
   </si>
 </sst>
 </file>
@@ -167,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -181,7 +175,6 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -480,21 +473,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="4.5703125"/>
     <col customWidth="1" max="3" min="2" width="20.28515625"/>
-    <col customWidth="1" max="5" min="4" width="18.28515625"/>
-    <col customWidth="1" max="6" min="6" width="14.42578125"/>
+    <col customWidth="1" max="6" min="4" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="51.75" r="1" spans="1:7">
+    <row customHeight="1" ht="51.75" r="1" spans="1:6">
       <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
@@ -510,126 +502,125 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="2" spans="1:7">
+    <row customHeight="1" ht="51.75" r="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="F2" s="4" t="n">
         <v>7764</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="3" spans="1:7">
+    <row customHeight="1" ht="51.75" r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="F3" s="4" t="n">
         <v>1709.3754</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="4" spans="1:7">
+    <row customHeight="1" ht="51.75" r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>7764</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="5" spans="1:7">
+    <row customHeight="1" ht="51.75" r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="51.75" r="6" spans="1:7">
+    <row customHeight="1" ht="52.5" r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -88,7 +88,7 @@
     <t>convention générale</t>
   </si>
   <si>
-    <t>Université de Paris</t>
+    <t>Université de Paris 1</t>
   </si>
   <si>
     <t>Paris</t>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -607,6 +607,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -64,7 +64,7 @@
     <t>31400 Toulouse, France</t>
   </si>
   <si>
-    <t>École des mines d'Alès</t>
+    <t>École nationale supérieure des mines d'Alès</t>
   </si>
   <si>
     <t>Alès</t>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
@@ -31,6 +31,9 @@
     <t>7764</t>
   </si>
   <si>
+    <t>http://www.u-bordeaux.fr/</t>
+  </si>
+  <si>
     <t>Université Picardie Jules Verne-IUT Aisne</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>54 Boulevard Saint-André, 60000 Beauvais, France</t>
   </si>
   <si>
+    <t>https://iut-aisne.u-picardie.fr/</t>
+  </si>
+  <si>
     <t>École nationale supérieure des mines d'Albi</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>Campus Jarlard, 81013 CT Cédex 09, 81000 Albi, France</t>
   </si>
   <si>
+    <t>http://www.mines-albi.fr/</t>
+  </si>
+  <si>
     <t>Université Paul Sabatier Toulouse 3 (UPS)-IUT Paul Sabatier-Site Albi</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>31400 Toulouse, France</t>
   </si>
   <si>
+    <t>http://www.univ-tlse3.fr/</t>
+  </si>
+  <si>
     <t>École nationale supérieure des mines d'Alès</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t>3037,1709,3754,6908</t>
   </si>
   <si>
+    <t>http://www.mines-ales.fr/</t>
+  </si>
+  <si>
     <t>Université de Picardie Jules Verne</t>
   </si>
   <si>
@@ -88,6 +103,9 @@
     <t>convention générale</t>
   </si>
   <si>
+    <t>https://www.u-picardie.fr/</t>
+  </si>
+  <si>
     <t>Université de Paris 1</t>
   </si>
   <si>
@@ -98,6 +116,9 @@
   </si>
   <si>
     <t>3037, 6908</t>
+  </si>
+  <si>
+    <t>https://www.univ-paris1.fr/</t>
   </si>
 </sst>
 </file>
@@ -105,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,6 +139,12 @@
       <family val="1"/>
       <color rgb="FF262626"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,10 +185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -175,9 +203,11 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -473,10 +503,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -484,9 +514,10 @@
     <col customWidth="1" max="1" min="1" width="4.5703125"/>
     <col customWidth="1" max="3" min="2" width="20.28515625"/>
     <col customWidth="1" max="6" min="4" width="18.28515625"/>
+    <col customWidth="1" max="7" min="7" width="35.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="51.75" r="1" spans="1:6">
+    <row customHeight="1" ht="51.75" r="1" spans="1:7">
       <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
@@ -505,125 +536,146 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="2" spans="1:6">
+    <row customHeight="1" ht="51.75" r="2" spans="1:7">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>7764</v>
       </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="3" spans="1:6">
+    <row customHeight="1" ht="51.75" r="3" spans="1:7">
       <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>1709.3754</v>
       </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="4" spans="1:6">
+    <row customHeight="1" ht="51.75" r="4" spans="1:7">
       <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>7764</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row customHeight="1" ht="51.75" r="5" spans="1:6">
+    <row customHeight="1" ht="51.75" r="5" spans="1:7">
       <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="52.5" r="6" spans="1:6">
+    <row customHeight="1" ht="52.5" r="6" spans="1:7">
       <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
@@ -52,15 +52,15 @@
     <t>École nationale supérieure des mines d'Albi</t>
   </si>
   <si>
-    <t>EI</t>
-  </si>
-  <si>
     <t>Albi</t>
   </si>
   <si>
     <t>Campus Jarlard, 81013 CT Cédex 09, 81000 Albi, France</t>
   </si>
   <si>
+    <t>1709.3754</t>
+  </si>
+  <si>
     <t>http://www.mines-albi.fr/</t>
   </si>
   <si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>https://www.univ-paris1.fr/</t>
+  </si>
+  <si>
+    <t>Université de Lyon</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>92, rue Pasteur 30122 Lyon, France</t>
   </si>
 </sst>
 </file>
@@ -186,8 +195,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -206,8 +215,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -503,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -571,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1709.3754</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -597,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -676,6 +685,26 @@
       </c>
       <c r="G7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,44 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
   <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Agen</t>
+  </si>
+  <si>
+    <t>146 rue Léo Saignat, 33000 Bordeaux, France</t>
+  </si>
+  <si>
+    <t>7764</t>
+  </si>
+  <si>
+    <t>http://www.u-bordeaux.fr/</t>
+  </si>
+  <si>
+    <t>Université Picardie Jules Verne-IUT Aisne</t>
+  </si>
+  <si>
+    <t>IUT</t>
+  </si>
+  <si>
+    <t>Laon</t>
+  </si>
+  <si>
+    <t>54 Boulevard Saint-André, 60000 Beauvais, France</t>
+  </si>
+  <si>
+    <t>https://iut-aisne.u-picardie.fr/</t>
+  </si>
+  <si>
+    <t>École nationale supérieure des mines d'Albi</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
-    <t>Agen</t>
-  </si>
-  <si>
-    <t>146 rue Léo Saignat, 33000 Bordeaux, France</t>
-  </si>
-  <si>
-    <t>7764</t>
-  </si>
-  <si>
-    <t>http://www.u-bordeaux.fr/</t>
-  </si>
-  <si>
-    <t>Université Picardie Jules Verne-IUT Aisne</t>
-  </si>
-  <si>
-    <t>IUT</t>
-  </si>
-  <si>
-    <t>Laon</t>
-  </si>
-  <si>
-    <t>54 Boulevard Saint-André, 60000 Beauvais, France</t>
-  </si>
-  <si>
-    <t>https://iut-aisne.u-picardie.fr/</t>
-  </si>
-  <si>
-    <t>École nationale supérieure des mines d'Albi</t>
-  </si>
-  <si>
     <t>Albi</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>Université Paul Sabatier Toulouse 3 (UPS)-IUT Paul Sabatier-Site Albi</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
     <t>31400 Toulouse, France</t>
   </si>
   <si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>École nationale supérieure des mines d'Alès</t>
+  </si>
+  <si>
+    <t>EI</t>
   </si>
   <si>
     <t>Alès</t>
@@ -195,8 +198,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -215,8 +218,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -580,19 +583,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="51.75" r="4" spans="1:7">
@@ -600,19 +603,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>7764</v>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -626,19 +629,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="52.5" r="6" spans="1:7">
@@ -646,22 +649,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -669,22 +672,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -692,16 +695,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -52,49 +52,49 @@
     <t>École nationale supérieure des mines d'Albi</t>
   </si>
   <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>Albi</t>
+  </si>
+  <si>
+    <t>Campus Jarlard, 81013 CT Cédex 09, 81000 Albi, France</t>
+  </si>
+  <si>
+    <t>1709.3754</t>
+  </si>
+  <si>
+    <t>http://www.mines-albi.fr/</t>
+  </si>
+  <si>
+    <t>Université Paul Sabatier Toulouse 3 (UPS)-IUT Paul Sabatier-Site Albi</t>
+  </si>
+  <si>
+    <t>31400 Toulouse, France</t>
+  </si>
+  <si>
+    <t>http://www.univ-tlse3.fr/</t>
+  </si>
+  <si>
+    <t>École nationale supérieure des mines d'Alès</t>
+  </si>
+  <si>
+    <t>Alès</t>
+  </si>
+  <si>
+    <t>30100 Alès, France</t>
+  </si>
+  <si>
+    <t>3037,1709,3754,6908</t>
+  </si>
+  <si>
+    <t>http://www.mines-ales.fr/</t>
+  </si>
+  <si>
+    <t>Université de Picardie Jules Verne</t>
+  </si>
+  <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>Albi</t>
-  </si>
-  <si>
-    <t>Campus Jarlard, 81013 CT Cédex 09, 81000 Albi, France</t>
-  </si>
-  <si>
-    <t>1709.3754</t>
-  </si>
-  <si>
-    <t>http://www.mines-albi.fr/</t>
-  </si>
-  <si>
-    <t>Université Paul Sabatier Toulouse 3 (UPS)-IUT Paul Sabatier-Site Albi</t>
-  </si>
-  <si>
-    <t>31400 Toulouse, France</t>
-  </si>
-  <si>
-    <t>http://www.univ-tlse3.fr/</t>
-  </si>
-  <si>
-    <t>École nationale supérieure des mines d'Alès</t>
-  </si>
-  <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>Alès</t>
-  </si>
-  <si>
-    <t>30100 Alès, France</t>
-  </si>
-  <si>
-    <t>3037,1709,3754,6908</t>
-  </si>
-  <si>
-    <t>http://www.mines-ales.fr/</t>
-  </si>
-  <si>
-    <t>Université de Picardie Jules Verne</t>
   </si>
   <si>
     <t>Amiens</t>
@@ -629,19 +629,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="52.5" r="6" spans="1:7">
@@ -649,10 +649,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -698,7 +698,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Université Bordeaux 1-IUT Agen</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>92, rue Pasteur 30122 Lyon, France</t>
+  </si>
+  <si>
+    <t>Université d'Aix Marseille</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>58, bd Charles Livon 13284 Marseille Cedex 07</t>
   </si>
 </sst>
 </file>
@@ -198,8 +207,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -218,8 +227,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -515,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -710,6 +719,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -207,8 +207,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -227,8 +227,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -31,7 +31,7 @@
     <t>7764</t>
   </si>
   <si>
-    <t>http://www.u-bordeaux.fr/</t>
+    <t>http://www.facebook.com</t>
   </si>
   <si>
     <t>Université Picardie Jules Verne-IUT Aisne</t>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="641">
   <si>
     <t>Type d'établissement</t>
   </si>
@@ -1931,6 +1931,12 @@
   </si>
   <si>
     <t>EC</t>
+  </si>
+  <si>
+    <t>1307, 7764</t>
+  </si>
+  <si>
+    <t>3037,1709,3754,6908</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2288,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K237" sqref="K237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2363,8 +2369,12 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1">
@@ -2441,8 +2451,12 @@
         <v>16</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="1">
@@ -2551,8 +2565,12 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="1">
@@ -2603,7 +2621,9 @@
         <v>38</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
@@ -2687,8 +2707,12 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="1">
@@ -2745,7 +2769,9 @@
         <v>58</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
@@ -2885,7 +2911,9 @@
         <v>77</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -3021,7 +3049,9 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -3075,8 +3105,12 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="1">
@@ -3103,8 +3137,12 @@
         <v>105</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="1">
@@ -3211,7 +3249,9 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -3315,7 +3355,9 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -3395,8 +3437,12 @@
         <v>138</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="J40" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="1">
@@ -3489,8 +3535,12 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" s="1">
@@ -3593,7 +3643,9 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
@@ -3751,7 +3803,9 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1">
@@ -3897,8 +3951,12 @@
         <v>199</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
       <c r="A60" s="1">
@@ -3983,8 +4041,12 @@
         <v>211</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="J62" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1">
       <c r="A63" s="1">
@@ -4011,7 +4073,9 @@
         <v>215</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1">
@@ -4179,7 +4243,9 @@
         <v>238</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="J69" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1">
@@ -4309,8 +4375,12 @@
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1">
       <c r="A75" s="1">
@@ -4443,8 +4513,12 @@
         <v>268</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="J79" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1">
       <c r="A80" s="1">
@@ -4495,7 +4569,9 @@
         <v>273</v>
       </c>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1">
@@ -4599,7 +4675,9 @@
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1">
@@ -4695,7 +4773,9 @@
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>639</v>
+      </c>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1">
@@ -4819,7 +4899,9 @@
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1">
@@ -4897,8 +4979,12 @@
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="J97" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1">
       <c r="A98" s="1">
@@ -4973,7 +5059,9 @@
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="J100" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1">
@@ -5019,7 +5107,9 @@
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1">
@@ -5145,8 +5235,12 @@
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1">
       <c r="A108" s="1">
@@ -5253,7 +5347,9 @@
         <v>348</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1">
@@ -5357,8 +5453,12 @@
         <v>359</v>
       </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="J115" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="15" customHeight="1">
       <c r="A116" s="1">
@@ -5411,7 +5511,9 @@
         <v>105</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1">
@@ -5463,8 +5565,12 @@
         <v>370</v>
       </c>
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="15" customHeight="1">
       <c r="A120" s="1">
@@ -5653,7 +5759,9 @@
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="J126" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" ht="15" customHeight="1">
@@ -5849,8 +5957,12 @@
         <v>418</v>
       </c>
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="J133" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="134" spans="1:11" ht="15" customHeight="1">
       <c r="A134" s="1">
@@ -5955,8 +6067,12 @@
         <v>431</v>
       </c>
       <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+      <c r="J137" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="138" spans="1:11" ht="15" customHeight="1">
       <c r="A138" s="1">
@@ -6031,7 +6147,9 @@
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
+      <c r="J140" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="1:11" ht="15" customHeight="1">
@@ -6085,7 +6203,9 @@
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
+      <c r="J142" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="1:11" ht="15" customHeight="1">
@@ -6165,8 +6285,12 @@
         <v>452</v>
       </c>
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
+      <c r="J145" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1">
       <c r="A146" s="1">
@@ -6361,7 +6485,9 @@
         <v>403</v>
       </c>
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
+      <c r="J153" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1">
@@ -6415,8 +6541,12 @@
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="J155" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1">
       <c r="A156" s="1">
@@ -6487,7 +6617,9 @@
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
+      <c r="J158" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1">
@@ -6543,8 +6675,12 @@
         <v>486</v>
       </c>
       <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+      <c r="J160" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1">
       <c r="A161" s="1">
@@ -6623,7 +6759,9 @@
         <v>494</v>
       </c>
       <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
+      <c r="J163" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1">
@@ -6679,7 +6817,9 @@
         <v>501</v>
       </c>
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="J165" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1">
@@ -6819,8 +6959,12 @@
         <v>517</v>
       </c>
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
+      <c r="J170" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K170" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1">
       <c r="A171" s="1">
@@ -6969,7 +7113,9 @@
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
+      <c r="J176" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K176" s="2"/>
     </row>
     <row r="177" spans="1:11" ht="15" customHeight="1">
@@ -7021,8 +7167,12 @@
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
+      <c r="J178" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K178" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="179" spans="1:11" ht="15" customHeight="1">
       <c r="A179" s="1">
@@ -7143,7 +7293,9 @@
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="1:11" ht="15" customHeight="1">
@@ -7191,8 +7343,12 @@
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
+      <c r="J185" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K185" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="186" spans="1:11" ht="15" customHeight="1">
       <c r="A186" s="1">
@@ -7239,7 +7395,9 @@
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
+      <c r="J187" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K187" s="2"/>
     </row>
     <row r="188" spans="1:11" ht="15" customHeight="1">
@@ -7457,8 +7615,12 @@
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
+      <c r="J196" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K196" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="197" spans="1:11" ht="15" customHeight="1">
       <c r="A197" s="1">
@@ -7505,7 +7667,9 @@
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
+      <c r="J198" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K198" s="2"/>
     </row>
     <row r="199" spans="1:11" ht="15" customHeight="1">
@@ -7637,8 +7801,12 @@
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
+      <c r="J203" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K203" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="204" spans="1:11" ht="15" customHeight="1">
       <c r="A204" s="1">
@@ -7739,7 +7907,9 @@
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
+      <c r="J207" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K207" s="2"/>
     </row>
     <row r="208" spans="1:11" ht="15" customHeight="1">
@@ -7885,7 +8055,9 @@
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
+      <c r="J213" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K213" s="2"/>
     </row>
     <row r="214" spans="1:11" ht="15" customHeight="1">
@@ -7991,8 +8163,12 @@
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
+      <c r="J217" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K217" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="218" spans="1:11" ht="15" customHeight="1">
       <c r="A218" s="1">
@@ -8089,8 +8265,12 @@
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
+      <c r="J221" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K221" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="222" spans="1:11" ht="15" customHeight="1">
       <c r="A222" s="1">
@@ -8245,7 +8425,9 @@
         <v>615</v>
       </c>
       <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
+      <c r="J227" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="K227" s="2"/>
     </row>
     <row r="228" spans="1:11" ht="15" customHeight="1">
@@ -8295,7 +8477,9 @@
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
+      <c r="J229" s="2">
+        <v>1709.3753999999999</v>
+      </c>
       <c r="K229" s="2"/>
     </row>
     <row r="230" spans="1:11" ht="15" customHeight="1">
@@ -8401,8 +8585,12 @@
         <v>31000</v>
       </c>
       <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
+      <c r="J233" s="2">
+        <v>7764</v>
+      </c>
+      <c r="K233" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="234" spans="1:11" ht="15" customHeight="1">
       <c r="A234" s="1">
@@ -8429,8 +8617,12 @@
         <v>31042</v>
       </c>
       <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
+      <c r="J234" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K234" s="2">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="637">
   <si>
     <t>Type d'établissement</t>
   </si>
@@ -310,12 +310,6 @@
     <t>ENSCCF</t>
   </si>
   <si>
-    <t>Ensemble scientifique des Cézeaux</t>
-  </si>
-  <si>
-    <t>Aubière Cedex</t>
-  </si>
-  <si>
     <t>63174</t>
   </si>
   <si>
@@ -463,15 +457,6 @@
     <t>Groupe Sup de Co La Rochelle</t>
   </si>
   <si>
-    <t>102 rue de Coureilles - Les Minimes</t>
-  </si>
-  <si>
-    <t>La Rochelle Cedex</t>
-  </si>
-  <si>
-    <t>17024</t>
-  </si>
-  <si>
     <t>Haute école des arts du Rhin (HEAR) - Strasbourg</t>
   </si>
   <si>
@@ -904,12 +889,6 @@
     <t>IUT de Blagnac</t>
   </si>
   <si>
-    <t>1, Place Georges Brassens, BP 60073</t>
-  </si>
-  <si>
-    <t>Blagnac Cédex</t>
-  </si>
-  <si>
     <t>31703</t>
   </si>
   <si>
@@ -1846,15 +1825,9 @@
     <t>Université Paris-Est Marne-la-Vallée</t>
   </si>
   <si>
-    <t>Route forestière Hurtault</t>
-  </si>
-  <si>
     <t>Marne-la-Vallée</t>
   </si>
   <si>
-    <t>77300</t>
-  </si>
-  <si>
     <t>Université Paris-Sud</t>
   </si>
   <si>
@@ -1937,6 +1910,21 @@
   </si>
   <si>
     <t>3037,1709,3754,6908</t>
+  </si>
+  <si>
+    <t>Campus des Cézeaux, Avenue Blaise Pascal</t>
+  </si>
+  <si>
+    <t>102 rue de Coureilles</t>
+  </si>
+  <si>
+    <t>1, Place Georges Brassens</t>
+  </si>
+  <si>
+    <t>Blagnac</t>
+  </si>
+  <si>
+    <t>5 boulevard Descartes</t>
   </si>
 </sst>
 </file>
@@ -2294,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K237" sqref="K237"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A214" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2331,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -2340,13 +2328,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
@@ -2354,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2365,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2382,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -2393,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2406,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -2419,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2432,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2445,14 +2433,14 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K5" s="2">
         <v>1234</v>
@@ -2464,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2477,7 +2465,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2490,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2505,7 +2493,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
@@ -2522,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -2535,7 +2523,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
@@ -2550,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -2561,7 +2549,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2578,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -2589,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2602,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2615,14 +2603,14 @@
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -2632,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -2645,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>42</v>
@@ -2660,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
@@ -2675,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>46</v>
@@ -2690,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -2703,12 +2691,12 @@
         <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K14" s="2">
         <v>1234</v>
@@ -2720,7 +2708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
@@ -2735,7 +2723,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -2750,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -2763,7 +2751,7 @@
         <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>58</v>
@@ -2780,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -2795,7 +2783,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
@@ -2810,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>64</v>
@@ -2821,7 +2809,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2834,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>66</v>
@@ -2845,7 +2833,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2858,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -2873,7 +2861,7 @@
         <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>72</v>
@@ -2890,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>75</v>
@@ -2905,14 +2893,14 @@
         <v>71</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -2922,7 +2910,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
@@ -2937,7 +2925,7 @@
         <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>82</v>
@@ -2952,7 +2940,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>83</v>
@@ -2967,7 +2955,7 @@
         <v>86</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2980,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
@@ -2993,7 +2981,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>90</v>
@@ -3008,7 +2996,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>91</v>
@@ -3019,7 +3007,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>93</v>
@@ -3034,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>94</v>
@@ -3045,7 +3033,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3060,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>96</v>
@@ -3069,16 +3057,16 @@
         <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>632</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>620</v>
+      </c>
+      <c r="H27" s="2">
+        <v>63178</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3090,10 +3078,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3101,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3118,27 +3106,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K29" s="2">
         <v>1234</v>
@@ -3150,18 +3138,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3174,25 +3162,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3204,25 +3192,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3234,23 +3222,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -3260,18 +3248,18 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3284,25 +3272,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3314,20 +3302,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3340,18 +3328,18 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3366,22 +3354,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3394,16 +3382,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3416,25 +3404,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
@@ -3450,16 +3438,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3472,18 +3460,18 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3496,18 +3484,18 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3520,23 +3508,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K44" s="2">
         <v>1234</v>
@@ -3548,18 +3536,18 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3572,23 +3560,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>633</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>151</v>
+        <v>620</v>
+      </c>
+      <c r="H46" s="2">
+        <v>17000</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -3600,23 +3588,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -3628,23 +3616,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K48" s="2"/>
     </row>
@@ -3654,16 +3642,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3676,23 +3664,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3704,23 +3692,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3732,23 +3720,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3760,23 +3748,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -3788,18 +3776,18 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3814,28 +3802,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -3846,18 +3834,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3870,25 +3858,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3900,25 +3888,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3930,29 +3918,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K59" s="2">
         <v>1234</v>
@@ -3964,25 +3952,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3994,22 +3982,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -4022,23 +4010,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2">
@@ -4054,27 +4042,27 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K63" s="2"/>
     </row>
@@ -4084,18 +4072,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4108,18 +4096,18 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4132,25 +4120,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -4162,25 +4150,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -4192,25 +4180,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4222,25 +4210,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2">
@@ -4254,18 +4242,18 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4278,25 +4266,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4308,18 +4296,18 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4332,20 +4320,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4358,25 +4346,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K74" s="2">
         <v>1234</v>
@@ -4388,23 +4376,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4416,16 +4404,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4438,23 +4426,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4466,23 +4454,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4494,23 +4482,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2">
@@ -4526,10 +4514,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4537,7 +4525,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4550,27 +4538,27 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K81" s="2"/>
     </row>
@@ -4580,18 +4568,18 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4604,23 +4592,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4632,20 +4620,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>24</v>
@@ -4660,18 +4648,18 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4686,16 +4674,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -4708,18 +4696,18 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4732,23 +4720,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4760,21 +4748,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K89" s="2"/>
     </row>
@@ -4784,18 +4772,18 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4808,18 +4796,18 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4832,23 +4820,23 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>296</v>
+        <v>634</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>297</v>
+        <v>635</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4860,18 +4848,18 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4884,23 +4872,23 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K94" s="2"/>
     </row>
@@ -4910,23 +4898,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4938,23 +4926,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4966,16 +4954,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4992,18 +4980,18 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -5016,23 +5004,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -5044,18 +5032,18 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -5070,16 +5058,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -5092,23 +5080,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K102" s="2"/>
     </row>
@@ -5118,23 +5106,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -5146,18 +5134,18 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5170,22 +5158,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5196,18 +5184,18 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5220,10 +5208,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5231,12 +5219,12 @@
         <v>30</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K107" s="2">
         <v>1234</v>
@@ -5248,23 +5236,23 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5276,23 +5264,23 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5304,18 +5292,18 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5328,27 +5316,27 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K111" s="2"/>
     </row>
@@ -5358,20 +5346,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5384,21 +5372,21 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -5410,10 +5398,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5421,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5434,23 +5422,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2">
@@ -5466,21 +5454,21 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -5492,23 +5480,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2">
@@ -5522,10 +5510,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5533,7 +5521,7 @@
         <v>41</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5546,27 +5534,27 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K119" s="2">
         <v>1234</v>
@@ -5578,23 +5566,23 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -5606,23 +5594,23 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -5634,23 +5622,23 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -5662,23 +5650,23 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -5690,23 +5678,23 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -5718,20 +5706,20 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>58</v>
@@ -5746,16 +5734,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5770,23 +5758,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -5798,23 +5786,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -5826,23 +5814,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -5854,23 +5842,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -5882,23 +5870,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -5910,23 +5898,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -5938,23 +5926,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2">
@@ -5970,23 +5958,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -5998,23 +5986,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -6026,16 +6014,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6048,27 +6036,27 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K137" s="2">
         <v>1234</v>
@@ -6080,23 +6068,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -6108,18 +6096,18 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6132,23 +6120,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K140" s="2"/>
     </row>
@@ -6158,20 +6146,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>90</v>
@@ -6186,20 +6174,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -6214,18 +6202,18 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6238,23 +6226,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -6266,23 +6254,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2">
@@ -6298,18 +6286,18 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6322,16 +6310,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6344,16 +6332,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6366,20 +6354,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6392,23 +6380,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -6420,10 +6408,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6431,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6444,18 +6432,18 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6468,21 +6456,21 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2">
@@ -6496,23 +6484,23 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -6524,25 +6512,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K155" s="2">
         <v>1234</v>
@@ -6554,16 +6542,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -6576,18 +6564,18 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -6600,20 +6588,20 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -6628,23 +6616,23 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -6656,23 +6644,23 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2">
@@ -6688,23 +6676,23 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6716,10 +6704,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6727,7 +6715,7 @@
         <v>15</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6740,27 +6728,27 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K163" s="2"/>
     </row>
@@ -6770,23 +6758,23 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6798,23 +6786,23 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2">
@@ -6828,23 +6816,23 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -6856,23 +6844,23 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -6884,23 +6872,23 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -6912,23 +6900,23 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -6940,27 +6928,27 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K170" s="2">
         <v>1234</v>
@@ -6972,10 +6960,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6983,7 +6971,7 @@
         <v>8</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -6996,10 +6984,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7007,7 +6995,7 @@
         <v>57</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -7020,10 +7008,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7031,7 +7019,7 @@
         <v>86</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -7044,18 +7032,18 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -7068,23 +7056,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7096,20 +7084,20 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -7124,23 +7112,23 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7152,18 +7140,18 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -7180,18 +7168,18 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -7204,10 +7192,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7215,7 +7203,7 @@
         <v>86</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -7228,20 +7216,20 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -7254,10 +7242,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7265,7 +7253,7 @@
         <v>81</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -7278,23 +7266,23 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K183" s="2"/>
     </row>
@@ -7304,18 +7292,18 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -7328,23 +7316,23 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K185" s="2">
         <v>1234</v>
@@ -7356,18 +7344,18 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -7380,18 +7368,18 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -7406,18 +7394,18 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -7430,18 +7418,18 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -7454,18 +7442,18 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -7478,10 +7466,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7489,7 +7477,7 @@
         <v>30</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -7502,23 +7490,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -7530,7 +7518,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>73</v>
@@ -7539,7 +7527,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -7552,10 +7540,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7563,7 +7551,7 @@
         <v>12</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -7576,10 +7564,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7587,7 +7575,7 @@
         <v>41</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -7600,10 +7588,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7611,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -7628,18 +7616,18 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -7652,18 +7640,18 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -7678,18 +7666,18 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -7702,23 +7690,23 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -7730,23 +7718,23 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -7758,23 +7746,23 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -7786,23 +7774,23 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K203" s="2">
         <v>1234</v>
@@ -7814,18 +7802,18 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -7838,18 +7826,18 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -7862,25 +7850,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -7892,23 +7880,23 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K207" s="2"/>
     </row>
@@ -7918,20 +7906,20 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -7944,18 +7932,18 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -7968,18 +7956,18 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -7992,7 +7980,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>26</v>
@@ -8003,7 +7991,7 @@
         <v>25</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -8016,18 +8004,18 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -8040,18 +8028,18 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -8066,23 +8054,23 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -8094,23 +8082,23 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -8122,20 +8110,20 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -8148,18 +8136,18 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -8176,10 +8164,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8187,7 +8175,7 @@
         <v>65</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -8200,18 +8188,18 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -8224,18 +8212,18 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -8248,25 +8236,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K221" s="2">
         <v>1234</v>
@@ -8278,23 +8266,23 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -8306,18 +8294,18 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -8330,10 +8318,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8341,7 +8329,7 @@
         <v>49</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -8354,18 +8342,18 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -8378,23 +8366,23 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>612</v>
+        <v>620</v>
+      </c>
+      <c r="H226" s="2">
+        <v>77454</v>
       </c>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
@@ -8406,27 +8394,27 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K227" s="2"/>
     </row>
@@ -8436,20 +8424,20 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -8462,10 +8450,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8473,7 +8461,7 @@
         <v>12</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -8488,20 +8476,20 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -8514,18 +8502,18 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -8538,20 +8526,20 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H232" s="2">
         <v>75231</v>
@@ -8566,20 +8554,20 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H233" s="2">
         <v>31000</v>
@@ -8598,27 +8586,27 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H234" s="2">
         <v>31042</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="K234" s="2">
         <v>1234</v>

--- a/international/carte_interactive/static/carte_interactive/data/data.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="640">
   <si>
     <t>Type d'établissement</t>
   </si>
@@ -760,9 +760,6 @@
     <t>ISAM-IAE Nancy</t>
   </si>
   <si>
-    <t>25 rue Baron Louis - - CS 10399</t>
-  </si>
-  <si>
     <t>Nancy Cedex</t>
   </si>
   <si>
@@ -1912,6 +1909,15 @@
     <t>3037,1709,3754,6908</t>
   </si>
   <si>
+    <t>Université de Bourgogne</t>
+  </si>
+  <si>
+    <t>Esplanade Erasme</t>
+  </si>
+  <si>
+    <t>7764, 3754</t>
+  </si>
+  <si>
     <t>Campus des Cézeaux, Avenue Blaise Pascal</t>
   </si>
   <si>
@@ -1925,13 +1931,16 @@
   </si>
   <si>
     <t>5 boulevard Descartes</t>
+  </si>
+  <si>
+    <t>25 rue Baron Louis - CS 10399</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1947,6 +1956,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Default"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2001,13 +2016,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L234"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A214" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2319,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -2328,13 +2346,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
@@ -2342,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2353,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2370,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -2381,7 +2399,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2394,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -2407,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2420,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2433,14 +2451,14 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K5" s="2">
         <v>1234</v>
@@ -2452,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2465,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2478,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2493,7 +2511,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
@@ -2510,7 +2528,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -2523,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
@@ -2538,7 +2556,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -2549,7 +2567,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2566,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -2577,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2590,7 +2608,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2603,14 +2621,14 @@
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -2620,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -2633,7 +2651,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>42</v>
@@ -2648,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
@@ -2663,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>46</v>
@@ -2678,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -2691,12 +2709,12 @@
         <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K14" s="2">
         <v>1234</v>
@@ -2708,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
@@ -2723,7 +2741,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -2738,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -2751,7 +2769,7 @@
         <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>58</v>
@@ -2768,7 +2786,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -2783,7 +2801,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
@@ -2798,7 +2816,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>64</v>
@@ -2809,7 +2827,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2822,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>66</v>
@@ -2833,7 +2851,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2846,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -2861,7 +2879,7 @@
         <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>72</v>
@@ -2878,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>75</v>
@@ -2893,14 +2911,14 @@
         <v>71</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -2910,7 +2928,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
@@ -2925,7 +2943,7 @@
         <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>82</v>
@@ -2940,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>83</v>
@@ -2955,7 +2973,7 @@
         <v>86</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2968,7 +2986,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
@@ -2981,7 +2999,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>90</v>
@@ -2996,7 +3014,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>91</v>
@@ -3007,7 +3025,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>93</v>
@@ -3022,7 +3040,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>94</v>
@@ -3033,7 +3051,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3048,7 +3066,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>96</v>
@@ -3057,13 +3075,13 @@
         <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>198</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H27" s="2">
         <v>63178</v>
@@ -3078,7 +3096,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>99</v>
@@ -3089,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3106,7 +3124,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>100</v>
@@ -3119,14 +3137,14 @@
         <v>102</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K29" s="2">
         <v>1234</v>
@@ -3138,7 +3156,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>104</v>
@@ -3149,7 +3167,7 @@
         <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3162,7 +3180,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>106</v>
@@ -3177,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>109</v>
@@ -3192,7 +3210,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>110</v>
@@ -3207,7 +3225,7 @@
         <v>113</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>114</v>
@@ -3222,7 +3240,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>115</v>
@@ -3233,12 +3251,12 @@
         <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -3248,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>117</v>
@@ -3259,7 +3277,7 @@
         <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3272,7 +3290,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>119</v>
@@ -3287,7 +3305,7 @@
         <v>105</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>122</v>
@@ -3302,7 +3320,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>123</v>
@@ -3315,7 +3333,7 @@
         <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3328,7 +3346,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>126</v>
@@ -3339,7 +3357,7 @@
         <v>127</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3354,7 +3372,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>128</v>
@@ -3369,7 +3387,7 @@
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3382,7 +3400,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>131</v>
@@ -3391,7 +3409,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3404,7 +3422,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>132</v>
@@ -3419,7 +3437,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>136</v>
@@ -3438,7 +3456,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>137</v>
@@ -3447,7 +3465,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3460,7 +3478,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>138</v>
@@ -3471,7 +3489,7 @@
         <v>139</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3484,7 +3502,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>140</v>
@@ -3495,7 +3513,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3508,7 +3526,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>142</v>
@@ -3519,12 +3537,12 @@
         <v>143</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K44" s="2">
         <v>1234</v>
@@ -3536,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>144</v>
@@ -3547,7 +3565,7 @@
         <v>145</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3560,20 +3578,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H46" s="2">
         <v>17000</v>
@@ -3588,7 +3606,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>147</v>
@@ -3601,7 +3619,7 @@
         <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>150</v>
@@ -3616,7 +3634,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>151</v>
@@ -3627,12 +3645,12 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K48" s="2"/>
     </row>
@@ -3642,7 +3660,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>153</v>
@@ -3651,7 +3669,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3664,7 +3682,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>154</v>
@@ -3677,7 +3695,7 @@
         <v>65</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>156</v>
@@ -3692,7 +3710,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>157</v>
@@ -3705,7 +3723,7 @@
         <v>159</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>160</v>
@@ -3720,7 +3738,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>161</v>
@@ -3733,7 +3751,7 @@
         <v>163</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>164</v>
@@ -3748,7 +3766,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>165</v>
@@ -3761,7 +3779,7 @@
         <v>167</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>168</v>
@@ -3776,7 +3794,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>169</v>
@@ -3787,7 +3805,7 @@
         <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3802,7 +3820,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>171</v>
@@ -3817,7 +3835,7 @@
         <v>174</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>175</v>
@@ -3834,7 +3852,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>179</v>
@@ -3845,7 +3863,7 @@
         <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3858,7 +3876,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>181</v>
@@ -3873,7 +3891,7 @@
         <v>176</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>184</v>
@@ -3888,7 +3906,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>185</v>
@@ -3903,7 +3921,7 @@
         <v>188</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>189</v>
@@ -3918,7 +3936,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>190</v>
@@ -3933,14 +3951,14 @@
         <v>193</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>194</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K59" s="2">
         <v>1234</v>
@@ -3952,7 +3970,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>195</v>
@@ -3967,7 +3985,7 @@
         <v>198</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>199</v>
@@ -3982,7 +4000,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>200</v>
@@ -3997,7 +4015,7 @@
         <v>203</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -4010,7 +4028,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>204</v>
@@ -4023,7 +4041,7 @@
         <v>159</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>206</v>
@@ -4042,7 +4060,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>207</v>
@@ -4055,14 +4073,14 @@
         <v>209</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>210</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K63" s="2"/>
     </row>
@@ -4072,7 +4090,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>211</v>
@@ -4083,7 +4101,7 @@
         <v>212</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4096,7 +4114,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>213</v>
@@ -4107,7 +4125,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4120,7 +4138,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>215</v>
@@ -4135,7 +4153,7 @@
         <v>198</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>218</v>
@@ -4150,7 +4168,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>219</v>
@@ -4165,7 +4183,7 @@
         <v>222</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>223</v>
@@ -4180,7 +4198,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>224</v>
@@ -4195,7 +4213,7 @@
         <v>227</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>228</v>
@@ -4210,7 +4228,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>229</v>
@@ -4225,7 +4243,7 @@
         <v>232</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>233</v>
@@ -4242,7 +4260,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>234</v>
@@ -4253,7 +4271,7 @@
         <v>227</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4266,7 +4284,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>235</v>
@@ -4281,7 +4299,7 @@
         <v>238</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>239</v>
@@ -4296,7 +4314,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>240</v>
@@ -4307,7 +4325,7 @@
         <v>238</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4320,7 +4338,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>241</v>
@@ -4333,7 +4351,7 @@
         <v>243</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4346,7 +4364,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>244</v>
@@ -4359,12 +4377,12 @@
         <v>246</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K74" s="2">
         <v>1234</v>
@@ -4376,23 +4394,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4404,16 +4422,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4426,23 +4444,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4454,23 +4472,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4482,23 +4500,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2">
@@ -4514,10 +4532,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4525,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4538,27 +4556,27 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K81" s="2"/>
     </row>
@@ -4568,18 +4586,18 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4592,23 +4610,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4620,20 +4638,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>24</v>
@@ -4648,18 +4666,18 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4674,16 +4692,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -4696,18 +4714,18 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4720,23 +4738,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4748,21 +4766,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K89" s="2"/>
     </row>
@@ -4772,18 +4790,18 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4796,18 +4814,18 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4820,23 +4838,23 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4848,18 +4866,18 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4872,23 +4890,23 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K94" s="2"/>
     </row>
@@ -4898,23 +4916,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4926,23 +4944,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4954,16 +4972,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4980,18 +4998,18 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -5004,23 +5022,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -5032,18 +5050,18 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -5058,16 +5076,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -5080,23 +5098,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K102" s="2"/>
     </row>
@@ -5106,23 +5124,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -5134,18 +5152,18 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5158,22 +5176,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5184,10 +5202,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5195,7 +5213,7 @@
         <v>209</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5208,10 +5226,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5219,12 +5237,12 @@
         <v>30</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K107" s="2">
         <v>1234</v>
@@ -5236,23 +5254,23 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5264,23 +5282,23 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5292,18 +5310,18 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5316,27 +5334,27 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K111" s="2"/>
     </row>
@@ -5346,20 +5364,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5372,21 +5390,21 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -5398,10 +5416,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5409,7 +5427,7 @@
         <v>12</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5422,23 +5440,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2">
@@ -5454,21 +5472,21 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -5480,20 +5498,20 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>103</v>
@@ -5510,10 +5528,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5521,7 +5539,7 @@
         <v>41</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5534,27 +5552,27 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K119" s="2">
         <v>1234</v>
@@ -5566,23 +5584,23 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -5594,23 +5612,23 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -5622,23 +5640,23 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -5650,23 +5668,23 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -5678,23 +5696,23 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -5706,20 +5724,20 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="G125" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>58</v>
@@ -5734,16 +5752,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5758,23 +5776,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -5786,23 +5804,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -5814,23 +5832,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -5842,23 +5860,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -5870,23 +5888,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -5898,23 +5916,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -5926,23 +5944,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2">
@@ -5958,23 +5976,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -5986,23 +6004,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -6014,16 +6032,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6036,27 +6054,27 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K137" s="2">
         <v>1234</v>
@@ -6068,23 +6086,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -6096,10 +6114,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6107,7 +6125,7 @@
         <v>143</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6120,23 +6138,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K140" s="2"/>
     </row>
@@ -6146,20 +6164,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>90</v>
@@ -6174,20 +6192,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -6202,18 +6220,18 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6226,23 +6244,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -6254,23 +6272,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2">
@@ -6286,18 +6304,18 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6310,16 +6328,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6332,16 +6350,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6354,20 +6372,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6380,23 +6398,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -6408,10 +6426,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6419,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6432,18 +6450,18 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6456,21 +6474,21 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2">
@@ -6484,23 +6502,23 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -6512,25 +6530,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K155" s="2">
         <v>1234</v>
@@ -6542,16 +6560,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -6564,18 +6582,18 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -6588,20 +6606,20 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -6616,20 +6634,20 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>198</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>98</v>
@@ -6644,23 +6662,23 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2">
@@ -6676,23 +6694,23 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="G161" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6704,10 +6722,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6715,7 +6733,7 @@
         <v>15</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6728,27 +6746,27 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K163" s="2"/>
     </row>
@@ -6758,23 +6776,23 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6786,23 +6804,23 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2">
@@ -6816,23 +6834,23 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -6844,23 +6862,23 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -6872,23 +6890,23 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="G168" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -6900,23 +6918,23 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -6928,27 +6946,27 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K170" s="2">
         <v>1234</v>
@@ -6960,10 +6978,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6971,7 +6989,7 @@
         <v>8</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -6984,10 +7002,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6995,7 +7013,7 @@
         <v>57</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -7008,10 +7026,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7019,7 +7037,7 @@
         <v>86</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -7032,10 +7050,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -7043,7 +7061,7 @@
         <v>227</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -7056,23 +7074,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7084,20 +7102,20 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -7112,23 +7130,23 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="G177" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H177" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7140,18 +7158,18 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -7168,18 +7186,18 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -7192,10 +7210,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7203,7 +7221,7 @@
         <v>86</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -7216,20 +7234,20 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -7242,10 +7260,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7253,7 +7271,7 @@
         <v>81</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -7266,10 +7284,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7277,12 +7295,12 @@
         <v>143</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K183" s="2"/>
     </row>
@@ -7292,18 +7310,18 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -7316,23 +7334,23 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K185" s="2">
         <v>1234</v>
@@ -7344,18 +7362,18 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -7368,18 +7386,18 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -7394,18 +7412,18 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -7418,10 +7436,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7429,7 +7447,7 @@
         <v>102</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -7442,18 +7460,18 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -7466,10 +7484,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7477,7 +7495,7 @@
         <v>30</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -7490,23 +7508,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -7518,7 +7536,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>73</v>
@@ -7527,7 +7545,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -7540,10 +7558,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7551,7 +7569,7 @@
         <v>12</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -7564,10 +7582,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7575,7 +7593,7 @@
         <v>41</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -7584,14 +7602,14 @@
     </row>
     <row r="196" spans="1:11" ht="15" customHeight="1">
       <c r="A196" s="1">
-        <f t="shared" ref="A196:A234" si="3">+A195+1</f>
+        <f t="shared" ref="A196:A235" si="3">+A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7599,7 +7617,7 @@
         <v>49</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -7616,18 +7634,18 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -7640,18 +7658,18 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -7666,18 +7684,18 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -7690,23 +7708,23 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -7718,23 +7736,23 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -7746,23 +7764,23 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -7774,23 +7792,23 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K203" s="2">
         <v>1234</v>
@@ -7802,10 +7820,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7813,7 +7831,7 @@
         <v>149</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -7826,18 +7844,18 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -7850,25 +7868,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="G206" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -7880,10 +7898,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7891,12 +7909,12 @@
         <v>145</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K207" s="2"/>
     </row>
@@ -7906,20 +7924,20 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -7932,18 +7950,18 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -7956,18 +7974,18 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -7980,7 +7998,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>26</v>
@@ -7991,7 +8009,7 @@
         <v>25</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -8004,10 +8022,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -8015,7 +8033,7 @@
         <v>238</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -8028,10 +8046,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -8039,7 +8057,7 @@
         <v>163</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -8054,23 +8072,23 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -8082,23 +8100,23 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -8110,20 +8128,20 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -8136,10 +8154,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8147,7 +8165,7 @@
         <v>227</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -8164,10 +8182,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8175,7 +8193,7 @@
         <v>65</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -8188,18 +8206,18 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -8212,18 +8230,18 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -8236,25 +8254,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K221" s="2">
         <v>1234</v>
@@ -8266,23 +8284,23 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -8294,18 +8312,18 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -8318,10 +8336,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8329,7 +8347,7 @@
         <v>49</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -8342,18 +8360,18 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -8366,20 +8384,20 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H226" s="2">
         <v>77454</v>
@@ -8394,27 +8412,27 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K227" s="2"/>
     </row>
@@ -8424,20 +8442,20 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -8450,10 +8468,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8461,7 +8479,7 @@
         <v>12</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -8476,20 +8494,20 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -8502,18 +8520,18 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -8526,20 +8544,20 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="G232" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H232" s="2">
         <v>75231</v>
@@ -8554,20 +8572,20 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H233" s="2">
         <v>31000</v>
@@ -8586,30 +8604,57 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H234" s="2">
         <v>31042</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K234" s="2">
         <v>1234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="1">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="H235" s="6">
+        <v>21078</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
